--- a/추가정보/카테고리.xlsx
+++ b/추가정보/카테고리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff14p\Documents\GitHub\TIKITAKA\추가정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A3ED5-C256-4336-9B61-8C562598704D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE417F3-BA97-403D-B11D-9CD72AE80679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="3435" windowWidth="11685" windowHeight="10635" xr2:uid="{E248CD76-9150-44B8-B1E3-A18CD66B84D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E248CD76-9150-44B8-B1E3-A18CD66B84D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>디지털/가전</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>자동차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,58 +551,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267638F5-141B-44C1-8393-3453F0D8E930}">
-  <dimension ref="B7:R25"/>
+  <dimension ref="B7:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="E12:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
@@ -603,27 +589,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
@@ -631,33 +603,13 @@
         <v>6</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
@@ -672,19 +624,8 @@
         <v>12</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
@@ -699,17 +640,8 @@
         <v>8</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
@@ -724,68 +656,123 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4">
+        <v>40</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4">
+        <v>50</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4">
+        <v>60</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.3">
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="H17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4">
+        <v>99</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -797,7 +784,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -809,7 +796,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -821,7 +808,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -833,7 +820,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -845,7 +832,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -857,7 +844,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -869,7 +856,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -882,16 +869,17 @@
       <c r="O25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
